--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>ФАКТУРА</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Корисник</t>
   </si>
   <si>
-    <t>Royal</t>
+    <t>11111</t>
   </si>
   <si>
     <t>Трансакциска сметка: 210-0741982101-71</t>
@@ -64,7 +64,7 @@
     <t>Електрична енергија:</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>3325.40</t>
   </si>
   <si>
     <t>kWh</t>
@@ -73,6 +73,9 @@
     <t>Цена по kWh без ДДВ:</t>
   </si>
   <si>
+    <t>1.00</t>
+  </si>
+  <si>
     <t>ден.</t>
   </si>
   <si>
@@ -82,28 +85,34 @@
     <t xml:space="preserve">Обновлива Енергија:                                                                                                                                </t>
   </si>
   <si>
+    <t>977.62</t>
+  </si>
+  <si>
     <t xml:space="preserve">Цена на Обновлива енергија:                                                                                 </t>
   </si>
   <si>
-    <t>1.00</t>
+    <t>5.00</t>
   </si>
   <si>
     <t xml:space="preserve">Вкупен износ без ДДВ за обновлива енергија:                                                                                          </t>
   </si>
   <si>
-    <t>Надомест за организирање на пазарот на ел. енергија (1 мкд по kWh):</t>
+    <t>4888.10</t>
+  </si>
+  <si>
+    <t>Надомест за организирање на пазарот на ел. енергија (5 мкд по kWh):</t>
   </si>
   <si>
     <t>Вкупен износ на фактурата без ДДВ (даночна основа):</t>
   </si>
   <si>
-    <t>ДДВ (10%):</t>
+    <t>ДДВ (18%):</t>
   </si>
   <si>
     <t>Вкупно за наплата</t>
   </si>
   <si>
-    <t>11.00</t>
+    <t>29311.79</t>
   </si>
   <si>
     <t>Рок за наплата:</t>
@@ -1093,15 +1102,15 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1114,12 +1123,12 @@
         <v>15</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1129,7 +1138,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>16</v>
@@ -1137,7 +1146,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1147,15 +1156,15 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1165,15 +1174,15 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1183,15 +1192,15 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="17">
-        <v>0</v>
+        <v>16627</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1204,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:11" x14ac:dyDescent="0.25">
@@ -1213,7 +1222,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1227,7 +1236,7 @@
         <v>2077.0080255704543</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1244,13 +1253,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="8:10" x14ac:dyDescent="0.25">
@@ -1259,7 +1268,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -1269,10 +1278,10 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
@@ -1289,7 +1298,7 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -1339,13 +1348,13 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="I44" s="29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -1385,7 +1394,7 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
@@ -1471,32 +1480,32 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
       <c r="E58" s="33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="34"/>
       <c r="I58" s="35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -1507,13 +1516,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -1524,13 +1533,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -1538,25 +1547,25 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B63" s="42">
         <v>100368.551</v>
@@ -1565,7 +1574,7 @@
         <v>102081.067</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E63" s="42">
         <v>1</v>
@@ -1577,7 +1586,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B64" s="42">
         <v>59584.96</v>
@@ -1586,7 +1595,7 @@
         <v>60621.159</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E64" s="42">
         <v>2.5</v>
@@ -1602,7 +1611,7 @@
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
       <c r="E65" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F65" s="42">
         <f>F63+F64</f>
